--- a/biology/Botanique/Scheuchzeria_palustris/Scheuchzeria_palustris.xlsx
+++ b/biology/Botanique/Scheuchzeria_palustris/Scheuchzeria_palustris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Scheuchzeria palustris est une espèce de petites plantes herbacées monocotylédones, pérennes, des zones marécageuses ou des tourbières des régions froides et tempérées de l'hémisphère nord. C'est la seule espèce actuellement acceptée du genre Scheuchzeria[1]. Celui-ci est le seul genre de la famille des Scheuchzeriaceae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Scheuchzeria palustris est une espèce de petites plantes herbacées monocotylédones, pérennes, des zones marécageuses ou des tourbières des régions froides et tempérées de l'hémisphère nord. C'est la seule espèce actuellement acceptée du genre Scheuchzeria. Celui-ci est le seul genre de la famille des Scheuchzeriaceae.
 Scheuzeria palustris est une plante strictement protégée au niveau national en France (Annexe 1 de l'Arrêté du 20 janvier 1982).
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre Scheuchzeria lequel a été donné en l'honneur du naturaliste suisse Johann Jakob Scheuchzer (1672-1733) resté célèbre en Suisse pour ses contributions sur le milieu naturel de ce pays[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre Scheuchzeria lequel a été donné en l'honneur du naturaliste suisse Johann Jakob Scheuchzer (1672-1733) resté célèbre en Suisse pour ses contributions sur le milieu naturel de ce pays.
 </t>
         </is>
       </c>
